--- a/App_Release/Android/v1.7.8/Zeus_Android_v1_7_8.xlsx
+++ b/App_Release/Android/v1.7.8/Zeus_Android_v1_7_8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\001-Github\RYSE_Testing_record\App_Release\Android\v1.7.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\summe\Documents\000-Github\RYSE_Testing_record\App_Release\Android\v1.7.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F0271-9428-43B2-8F3F-553C9185E960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC1D3D6-C8C1-4195-9191-AEEDD64842AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7785C230-C9C6-4B37-86E6-FED87339FA29}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="382">
   <si>
     <t>Code</t>
   </si>
@@ -515,9 +515,6 @@
     <t>Valid ChangeTimezone</t>
   </si>
   <si>
-    <t>Date: 23-04-2025</t>
-  </si>
-  <si>
     <t>Valid PairBridge (OCR)</t>
   </si>
   <si>
@@ -935,9 +932,6 @@
     <t>Shade 2 Delete</t>
   </si>
   <si>
-    <t>Android App Release testing -  AndroidApp Test Suite v1.7.4 (SmartShade v5.0.2 &amp; SmartCurtain v2.0.8 &amp; SmartBridge 4.3.0 bnrf 3.11.0)</t>
-  </si>
-  <si>
     <t>Curtain BLE Pair Negative</t>
   </si>
   <si>
@@ -1064,27 +1058,9 @@
     <t>Android_App_Test_Suite_v1.7.8_Menu_21July2025</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>keep loading at dashboard page after clicking OPEN button of target shade</t>
-  </si>
-  <si>
-    <t>The shade name becomes "SmartShade Device" and the position shows "% Open" in SmartShade Setup page but dashboard is fine</t>
-  </si>
-  <si>
     <t>Android_App_Test_Suite_v1.7.8_Shade_Part3_21July2025</t>
   </si>
   <si>
-    <t>The SmartShade onboarding page doesn't show the right calibration status sometime</t>
-  </si>
-  <si>
-    <t>test again if have time or manual testing</t>
-  </si>
-  <si>
-    <t>Keep loading at dashboard after login</t>
-  </si>
-  <si>
     <t>No "cannot find smartshade" message if no pair button pressed at shade side</t>
   </si>
   <si>
@@ -1094,27 +1070,12 @@
     <t>Android_App_Test_Suite_v1.7.8_Curtain_Part1_22July2025</t>
   </si>
   <si>
-    <t>Manual test obscale detection</t>
-  </si>
-  <si>
     <t>22-07-2025</t>
   </si>
   <si>
-    <t>re-run</t>
-  </si>
-  <si>
-    <t>it triggered the obscale detection when SC moved to position 0 but is fine</t>
-  </si>
-  <si>
-    <t>It keeps loading after clicking "Pair" for Bluetooth pairing request</t>
-  </si>
-  <si>
     <t>Submitted bug report</t>
   </si>
   <si>
-    <t>try to reproduct it and submit bug report</t>
-  </si>
-  <si>
     <t>Android_App_Test_Suite_v1.7.8_Shade_Part5_22July2025</t>
   </si>
   <si>
@@ -1130,9 +1091,6 @@
     <t>Issue 3 (Bridge &amp; BLE Shade v3.10.0): No force update detected during onboarding shade with v3.10.0.</t>
   </si>
   <si>
-    <t>Issue 4(BLE Curtain): Got stuck at the pairing page after clicking "Pair" for authorizing Bluetooth.</t>
-  </si>
-  <si>
     <t>Android_App_Test_Suite_v1.7.8_Shade_Part6_22July2025</t>
   </si>
   <si>
@@ -1145,9 +1103,6 @@
     <t>Android_App_Test_Suite_v1.7.8_Group_Part1_22July2025</t>
   </si>
   <si>
-    <t>Not able to config the Obsale detection via the app (manual tested)</t>
-  </si>
-  <si>
     <t>Manual tested the up/down arrow</t>
   </si>
   <si>
@@ -1160,15 +1115,9 @@
     <t>Android_App_Test_Suite_v1.7.8_Shade_Part4_21July2025, Android_App_Test_Suite_v1.7.8_Shade_Part8_23July2025</t>
   </si>
   <si>
-    <t>Issue 5(Bridge SS): Not able to change SS obscale detection status via the app. App also didn't store the updates after making modification on the app side.</t>
-  </si>
-  <si>
     <t>Android_App_Test_Suite_v1.7.8_Curtain_Part2_23July2025</t>
   </si>
   <si>
-    <t>Manual tested speed setting</t>
-  </si>
-  <si>
     <t>Manual tested speed setting is disabled</t>
   </si>
   <si>
@@ -1197,6 +1146,84 @@
   </si>
   <si>
     <t>Android_App_Test_Suite_v1.7.8_Routine_Part5_23July2025</t>
+  </si>
+  <si>
+    <t>Android_App_Test_Suite_v1.7.8_Group_Part2_23July2025</t>
+  </si>
+  <si>
+    <t>Android_App_Test_Suite_v1.7.8_Group_Part3_24July2025</t>
+  </si>
+  <si>
+    <t>24-07-2025</t>
+  </si>
+  <si>
+    <t>Local Time doesn't update immediately after changing the timezone</t>
+  </si>
+  <si>
+    <t>Issue 1 (Bridge info): Local Time doesn't update immediately after changing the timezone</t>
+  </si>
+  <si>
+    <t>Android_App_Test_Suite_v1.7.8_Shade_Part1_21July2025, Android_App_Test_Suite_v1.7.8_Shade_OPEN_CLOSE_FAIL_23July2025</t>
+  </si>
+  <si>
+    <t>Not able to config the Obsale detection via the app (confirmed not the issue of the app)</t>
+  </si>
+  <si>
+    <t>Android_App_Test_Suite_v1.7.8_CloudSyn_24July2025</t>
+  </si>
+  <si>
+    <t>Need further check the position "fully open"</t>
+  </si>
+  <si>
+    <t>Manual tested the Sunrise/Sunset filter, which works fine</t>
+  </si>
+  <si>
+    <t>First position fail, but it's fine since Zeus swipes to the wrong position</t>
+  </si>
+  <si>
+    <t>it triggered the obscale detection when SC moved to position 0, but is fine</t>
+  </si>
+  <si>
+    <t>No "Calibration Required" message since the curtain is still inside the calibration mode. Manually checked is fine.</t>
+  </si>
+  <si>
+    <t>Manual tested and speed setting is fine (55% ~29s, 90% ~ 21s)</t>
+  </si>
+  <si>
+    <t>keep loading at the dashboard page after clicking the OPEN button of the target shade. For the first time, clicking the button will cause the animation to disappear if there is a timeout or no response. The second time you click will work fine.</t>
+  </si>
+  <si>
+    <t>Manually tested, which is fine.</t>
+  </si>
+  <si>
+    <t>The shade name becomes "SmartShade Device," and the position shows "% Open" in the SmartShade Setup page, but the dashboard is fine [Didn't see it again]</t>
+  </si>
+  <si>
+    <t>Manual tested</t>
+  </si>
+  <si>
+    <t>Android_App_Test_Suite_v1.7.8_Account_Part3_24July2025</t>
+  </si>
+  <si>
+    <t>Android App Release testing -  AndroidApp Test Suite v1.7.8 (SmartShade v5.0.2 &amp; SmartCurtain v2.0.8 &amp; SmartBridge 4.3.0 bnrf 4.2.2)</t>
+  </si>
+  <si>
+    <t>Date: 24-07-2025</t>
+  </si>
+  <si>
+    <t>Issue 4 (BLE Curtain): Got stuck at the pairing page after clicking "Pair" for authorizing Bluetooth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deprioritized </t>
+  </si>
+  <si>
+    <t>Minor issue:</t>
+  </si>
+  <si>
+    <t>Issue 5 (Dashboard Loading Blocker): After login, the dashboard will be block by the loading animation</t>
+  </si>
+  <si>
+    <t>Issue 6 (Account email and Profile): After login, the user email shows as empty and the the profile also does not show the user email as well</t>
   </si>
 </sst>
 </file>
@@ -1216,13 +1243,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1256,6 +1276,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1514,13 +1540,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1528,7 +1553,7 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1537,6 +1562,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1585,8 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4338,10 +4364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA5EB23-85E7-4EC6-9FFB-9E2F32772CB4}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4354,15 +4380,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="15" t="s">
-        <v>145</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4392,8 +4418,12 @@
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
@@ -4405,33 +4435,33 @@
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="26"/>
+      <c r="E5" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -4441,33 +4471,33 @@
         <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" s="26"/>
+      <c r="E7" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -4477,33 +4507,33 @@
         <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="26"/>
+      <c r="E9" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -4512,30 +4542,34 @@
       <c r="B10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5"/>
@@ -4547,8 +4581,12 @@
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
@@ -4557,52 +4595,52 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F15" s="26"/>
+      <c r="C15" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F16" s="17"/>
     </row>
@@ -4611,16 +4649,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -4632,33 +4670,35 @@
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F19" s="26"/>
+        <v>318</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -4668,35 +4708,35 @@
         <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+    </row>
+    <row r="21" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F21" s="26"/>
+      <c r="C21" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -4730,33 +4770,33 @@
         <v>60</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="F25" s="26"/>
+      <c r="C25" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -4766,8 +4806,12 @@
       <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
@@ -4779,13 +4823,13 @@
         <v>98</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -4797,13 +4841,13 @@
         <v>99</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F29" s="6"/>
     </row>
@@ -4815,13 +4859,13 @@
         <v>100</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F30" s="17"/>
     </row>
@@ -4833,29 +4877,33 @@
       <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+    <row r="33" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>329</v>
+      <c r="C33" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -4864,36 +4912,36 @@
         <v>102</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>330</v>
+      <c r="C35" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4904,35 +4952,35 @@
         <v>43</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="F37" s="26"/>
+      <c r="C37" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
@@ -4942,35 +4990,35 @@
         <v>45</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="F39" s="26"/>
+      <c r="C39" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
@@ -4980,36 +5028,36 @@
         <v>125</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>335</v>
+      <c r="C41" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5020,33 +5068,33 @@
         <v>48</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="F43" s="26"/>
+      <c r="C43" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
@@ -5056,16 +5104,16 @@
         <v>125</v>
       </c>
       <c r="C44" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>353</v>
-      </c>
       <c r="E44" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>346</v>
+        <v>338</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -5076,8 +5124,12 @@
       <c r="B46" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
@@ -5089,16 +5141,16 @@
         <v>115</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5109,13 +5161,13 @@
         <v>116</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F48" s="17"/>
     </row>
@@ -5126,30 +5178,38 @@
       <c r="B49" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>357</v>
+      <c r="C49" s="27" t="s">
+        <v>342</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="C50" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="51" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
@@ -5159,13 +5219,13 @@
         <v>119</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F51" s="17"/>
     </row>
@@ -5177,36 +5237,36 @@
         <v>120</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>363</v>
+      <c r="C53" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5217,15 +5277,17 @@
         <v>133</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="F54" s="6"/>
+        <v>347</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="55" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
@@ -5235,16 +5297,16 @@
         <v>134</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5255,17 +5317,15 @@
         <v>135</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>365</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
@@ -5275,13 +5335,13 @@
         <v>116</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F57" s="17"/>
     </row>
@@ -5293,24 +5353,24 @@
         <v>117</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+    <row r="59" spans="1:6" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="24"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -5320,8 +5380,12 @@
       <c r="B61" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
@@ -5333,31 +5397,31 @@
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26" t="s">
+    <row r="63" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="F63" s="26"/>
+        <v>330</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
@@ -5366,9 +5430,15 @@
       <c r="B64" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="C64" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>356</v>
+      </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5379,13 +5449,13 @@
         <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -5397,15 +5467,15 @@
         <v>52</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F66" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -5414,10 +5484,18 @@
       <c r="B67" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="C67" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="68" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -5427,8 +5505,12 @@
       <c r="B69" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="C69" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
@@ -5440,31 +5522,31 @@
         <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26" t="s">
+    <row r="71" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25" t="s">
         <v>102</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="F71" s="26"/>
+        <v>342</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
@@ -5474,27 +5556,27 @@
         <v>76</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="F72" s="17"/>
     </row>
-    <row r="73" spans="1:6" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
+    <row r="73" spans="1:6" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
@@ -5504,33 +5586,33 @@
         <v>78</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+    <row r="75" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="F75" s="26"/>
+      <c r="C75" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="F75" s="25"/>
     </row>
     <row r="76" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
@@ -5540,71 +5622,77 @@
         <v>142</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F76" s="17"/>
     </row>
-    <row r="77" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="26" t="s">
+    <row r="77" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="F77" s="26"/>
+      <c r="B77" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="78" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="F78" s="21"/>
+      <c r="C78" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="F78" s="20"/>
     </row>
     <row r="79" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="35"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="34"/>
     </row>
     <row r="80" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
+      <c r="C80" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -5613,9 +5701,15 @@
       <c r="B81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="C81" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5625,10 +5719,18 @@
       <c r="B82" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="C82" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
@@ -5637,9 +5739,15 @@
       <c r="B83" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="1"/>
+      <c r="C83" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -5650,8 +5758,12 @@
       <c r="B85" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="C85" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
@@ -5662,9 +5774,15 @@
       <c r="B86" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="1"/>
+      <c r="C86" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5674,63 +5792,75 @@
       <c r="B87" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="C87" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="F87" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>105</v>
       </c>
-      <c r="B89" t="s">
-        <v>332</v>
-      </c>
-      <c r="C89" t="s">
-        <v>344</v>
+      <c r="B89" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="F89" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>334</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
+      <c r="B90" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="F90" s="54" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C91" s="53" t="s">
-        <v>353</v>
+      <c r="B91" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="F92" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F93" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="54" t="s">
-        <v>347</v>
+      <c r="B94" t="s">
+        <v>381</v>
+      </c>
+      <c r="F94" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="19" t="s">
-        <v>348</v>
+      <c r="B95" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="53" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="54" t="s">
+      <c r="B96" t="s">
         <v>360</v>
       </c>
     </row>
@@ -5780,7 +5910,7 @@
       <formula>NOT(ISERROR(SEARCH("AX0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40 F40 B1:F39 B41:F1048576">
+  <conditionalFormatting sqref="B102:F1048576 B40 F40 B1:F39 B41:F88 F89 B94:E96 F91:F101 B89:B93 D89:E93">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="formula" val="MOD(ROW(),2)=0"/>
@@ -5794,7 +5924,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D102:D1048576 D1:D96">
     <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
@@ -5821,7 +5951,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B40 F40 B1:F39 B41:F1048576</xm:sqref>
+          <xm:sqref>B102:F1048576 B40 F40 B1:F39 B41:F88 F89 B94:E96 F91:F101 B89:B93 D89:E93</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5852,24 +5982,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -5879,34 +6009,34 @@
         <v>73</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="L2" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5917,34 +6047,34 @@
         <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5955,28 +6085,28 @@
         <v>75</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="J4" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -6087,24 +6217,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -6114,34 +6244,34 @@
         <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6152,34 +6282,34 @@
         <v>69</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6280,12 +6410,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -6295,19 +6425,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -6317,19 +6447,19 @@
         <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -6341,19 +6471,19 @@
         <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -6365,19 +6495,19 @@
         <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -6389,59 +6519,59 @@
         <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -6450,10 +6580,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -6462,10 +6592,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -6477,19 +6607,19 @@
         <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -6501,19 +6631,19 @@
         <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -6525,7 +6655,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -6537,7 +6667,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -6549,25 +6679,25 @@
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -6577,7 +6707,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -6589,7 +6719,7 @@
         <v>99</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -6601,35 +6731,35 @@
         <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="6"/>
     </row>
@@ -6639,19 +6769,19 @@
         <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="6"/>
     </row>
@@ -6663,19 +6793,19 @@
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" s="6"/>
     </row>
@@ -6687,19 +6817,19 @@
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="6"/>
     </row>
@@ -6711,19 +6841,19 @@
         <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40" s="6"/>
     </row>
@@ -6735,19 +6865,19 @@
         <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D42" s="6"/>
     </row>
@@ -6759,25 +6889,25 @@
         <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -6787,7 +6917,7 @@
         <v>115</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -6799,7 +6929,7 @@
         <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -6811,7 +6941,7 @@
         <v>117</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -6823,7 +6953,7 @@
         <v>118</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D49" s="1"/>
     </row>
@@ -6835,7 +6965,7 @@
         <v>119</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -6847,7 +6977,7 @@
         <v>120</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -6859,7 +6989,7 @@
         <v>124</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -6871,7 +7001,7 @@
         <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1"/>
     </row>
@@ -6883,7 +7013,7 @@
         <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D54" s="6"/>
     </row>
@@ -6895,7 +7025,7 @@
         <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="1"/>
     </row>
@@ -6907,7 +7037,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -6919,7 +7049,7 @@
         <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1"/>
     </row>
@@ -6934,20 +7064,20 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -6957,7 +7087,7 @@
         <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="1"/>
     </row>
@@ -6967,7 +7097,7 @@
         <v>102</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="6"/>
     </row>
@@ -6979,7 +7109,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" s="1"/>
     </row>
@@ -6991,7 +7121,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="6"/>
     </row>
@@ -7003,7 +7133,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="1"/>
     </row>
@@ -7015,25 +7145,25 @@
         <v>53</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -7043,17 +7173,17 @@
         <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="6"/>
     </row>
@@ -7065,19 +7195,19 @@
         <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="6"/>
     </row>
@@ -7089,19 +7219,19 @@
         <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="6"/>
     </row>
@@ -7113,19 +7243,19 @@
         <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="6"/>
     </row>
@@ -7137,25 +7267,25 @@
         <v>144</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -7165,7 +7295,7 @@
         <v>73</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" s="1"/>
     </row>
@@ -7177,7 +7307,7 @@
         <v>74</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" s="6"/>
     </row>
@@ -7189,25 +7319,25 @@
         <v>75</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
@@ -7217,7 +7347,7 @@
         <v>68</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D85" s="1"/>
     </row>
@@ -7229,7 +7359,7 @@
         <v>69</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D86" s="6"/>
     </row>
@@ -7360,23 +7490,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7386,16 +7516,16 @@
         <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -7411,13 +7541,13 @@
         <v>88</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -7434,13 +7564,13 @@
         <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -7457,13 +7587,13 @@
         <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -7480,19 +7610,19 @@
         <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7507,19 +7637,19 @@
         <v>93</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -7534,13 +7664,13 @@
         <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7557,31 +7687,31 @@
         <v>94</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7688,51 +7818,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -7746,25 +7876,25 @@
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -7778,25 +7908,25 @@
         <v>19</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -7810,28 +7940,28 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -7847,25 +7977,25 @@
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -7881,31 +8011,31 @@
         <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -7919,37 +8049,37 @@
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -7961,40 +8091,40 @@
         <v>57</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="N9" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -8005,80 +8135,80 @@
         <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
+        <v>168</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
+        <v>167</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -8192,20 +8322,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8215,19 +8345,19 @@
         <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -8239,19 +8369,19 @@
         <v>99</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -8263,22 +8393,22 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8386,31 +8516,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -8420,31 +8550,31 @@
         <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -8461,25 +8591,25 @@
         <v>102</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
@@ -8500,28 +8630,28 @@
         <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -8541,31 +8671,31 @@
         <v>43</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="K5" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -8584,31 +8714,31 @@
         <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -8627,55 +8757,55 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="S7" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8686,31 +8816,31 @@
         <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -8729,34 +8859,34 @@
         <v>125</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>265</v>
-      </c>
       <c r="F9" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H9" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="L9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
@@ -8774,22 +8904,22 @@
         <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -8811,28 +8941,28 @@
         <v>48</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>220</v>
-      </c>
       <c r="G11" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="I11" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="J11" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -8852,28 +8982,28 @@
         <v>126</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -8893,31 +9023,31 @@
         <v>125</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>265</v>
-      </c>
       <c r="G13" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>220</v>
-      </c>
       <c r="I13" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -9037,31 +9167,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -9071,28 +9201,28 @@
         <v>115</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -9112,28 +9242,28 @@
         <v>116</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I3" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
@@ -9153,28 +9283,28 @@
         <v>117</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -9194,25 +9324,25 @@
         <v>118</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -9233,43 +9363,43 @@
         <v>119</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -9284,55 +9414,55 @@
         <v>120</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="S7" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9343,55 +9473,55 @@
         <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="S8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -9402,49 +9532,49 @@
         <v>133</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="P9" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="Q9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -9457,49 +9587,49 @@
         <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="Q10" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -9512,22 +9642,22 @@
         <v>135</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -9549,28 +9679,28 @@
         <v>116</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -9590,28 +9720,28 @@
         <v>117</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -9730,27 +9860,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9760,40 +9890,40 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -9803,22 +9933,22 @@
         <v>102</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -9836,43 +9966,43 @@
         <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9883,43 +10013,43 @@
         <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -9930,43 +10060,43 @@
         <v>52</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9977,43 +10107,43 @@
         <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="O7" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -10133,36 +10263,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -10172,40 +10302,40 @@
         <v>104</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="N2" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
@@ -10224,22 +10354,22 @@
         <v>102</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -10266,43 +10396,43 @@
         <v>76</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="O4" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
@@ -10322,52 +10452,52 @@
         <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="R5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -10384,40 +10514,40 @@
         <v>78</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="N6" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
@@ -10438,52 +10568,52 @@
         <v>141</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="R7" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -10500,52 +10630,52 @@
         <v>142</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q8" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="R8" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -10562,70 +10692,70 @@
         <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="W9" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="X9" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -10636,52 +10766,52 @@
         <v>144</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q10" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="R10" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>

--- a/App_Release/Android/v1.7.8/Zeus_Android_v1_7_8.xlsx
+++ b/App_Release/Android/v1.7.8/Zeus_Android_v1_7_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\summe\Documents\000-Github\RYSE_Testing_record\App_Release\Android\v1.7.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC1D3D6-C8C1-4195-9191-AEEDD64842AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE4B11C-939D-4CC7-BF67-2D528C5723DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7785C230-C9C6-4B37-86E6-FED87339FA29}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="381">
   <si>
     <t>Code</t>
   </si>
@@ -1071,9 +1071,6 @@
   </si>
   <si>
     <t>22-07-2025</t>
-  </si>
-  <si>
-    <t>Submitted bug report</t>
   </si>
   <si>
     <t>Android_App_Test_Suite_v1.7.8_Shade_Part5_22July2025</t>
@@ -1359,7 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,7 +1522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1562,8 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1612,7 +1608,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4366,8 +4362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA5EB23-85E7-4EC6-9FFB-9E2F32772CB4}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4380,15 +4376,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="15" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4419,7 +4415,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>317</v>
@@ -4543,13 +4539,13 @@
         <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -4582,7 +4578,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>317</v>
@@ -4679,7 +4675,7 @@
         <v>321</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -4807,7 +4803,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>317</v>
@@ -4878,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>317</v>
@@ -4897,13 +4893,13 @@
         <v>318</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -4921,7 +4917,7 @@
         <v>324</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -4941,7 +4937,7 @@
         <v>323</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4961,7 +4957,7 @@
         <v>326</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -4999,7 +4995,7 @@
         <v>326</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -5016,7 +5012,7 @@
         <v>317</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F39" s="25"/>
     </row>
@@ -5028,16 +5024,16 @@
         <v>125</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>343</v>
-      </c>
       <c r="F40" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -5048,13 +5044,13 @@
         <v>47</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>327</v>
@@ -5092,7 +5088,7 @@
         <v>317</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F43" s="25"/>
     </row>
@@ -5107,13 +5103,13 @@
         <v>330</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -5125,7 +5121,7 @@
         <v>107</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>317</v>
@@ -5150,7 +5146,7 @@
         <v>329</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5179,16 +5175,16 @@
         <v>117</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>317</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5208,7 +5204,7 @@
         <v>329</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5246,7 +5242,7 @@
         <v>329</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5266,7 +5262,7 @@
         <v>329</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5277,16 +5273,16 @@
         <v>133</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>317</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5297,16 +5293,16 @@
         <v>134</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E55" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5335,13 +5331,13 @@
         <v>116</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F57" s="17"/>
     </row>
@@ -5353,13 +5349,13 @@
         <v>117</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>317</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F58" s="6"/>
     </row>
@@ -5381,7 +5377,7 @@
         <v>13</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>317</v>
@@ -5403,7 +5399,7 @@
         <v>317</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -5419,7 +5415,7 @@
         <v>317</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F63" s="25"/>
     </row>
@@ -5431,13 +5427,13 @@
         <v>50</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>317</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F64" s="6"/>
     </row>
@@ -5455,7 +5451,7 @@
         <v>317</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -5473,7 +5469,7 @@
         <v>317</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F66" s="25"/>
     </row>
@@ -5485,16 +5481,16 @@
         <v>53</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -5506,7 +5502,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>317</v>
@@ -5522,13 +5518,13 @@
         <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F70" s="1"/>
     </row>
@@ -5538,13 +5534,13 @@
         <v>102</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>317</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F71" s="25"/>
     </row>
@@ -5556,13 +5552,13 @@
         <v>76</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F72" s="17"/>
     </row>
@@ -5586,13 +5582,13 @@
         <v>78</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F74" s="17"/>
     </row>
@@ -5604,13 +5600,13 @@
         <v>141</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>317</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F75" s="25"/>
     </row>
@@ -5622,13 +5618,13 @@
         <v>142</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F76" s="17"/>
     </row>
@@ -5637,19 +5633,19 @@
         <v>139</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>317</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5660,13 +5656,13 @@
         <v>144</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>317</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F78" s="20"/>
     </row>
@@ -5686,7 +5682,7 @@
         <v>15</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>317</v>
@@ -5702,13 +5698,13 @@
         <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -5720,16 +5716,16 @@
         <v>74</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>317</v>
       </c>
       <c r="E82" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5740,13 +5736,13 @@
         <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F83" s="1"/>
     </row>
@@ -5759,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>317</v>
@@ -5775,13 +5771,13 @@
         <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>317</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F86" s="1"/>
     </row>
@@ -5793,13 +5789,13 @@
         <v>69</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>317</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F87" s="6"/>
     </row>
@@ -5807,61 +5803,61 @@
       <c r="A89" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="36" t="s">
-        <v>334</v>
+      <c r="B89" s="53" t="s">
+        <v>333</v>
       </c>
       <c r="F89" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B90" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="F90" s="54" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="36" t="s">
-        <v>336</v>
-      </c>
       <c r="F91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="37" t="s">
-        <v>377</v>
+      <c r="B92" s="53" t="s">
+        <v>376</v>
       </c>
       <c r="F92" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="F93" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="F93" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>381</v>
-      </c>
       <c r="F94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5924,7 +5920,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102:D1048576 D1:D96">
+  <conditionalFormatting sqref="D1:D96 D102:D1048576">
     <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
@@ -5989,17 +5985,17 @@
         <v>15</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -6224,17 +6220,17 @@
         <v>16</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -6410,12 +6406,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -7497,16 +7493,16 @@
         <v>9</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7825,19 +7821,19 @@
         <v>10</v>
       </c>
       <c r="C1" s="30"/>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8137,19 +8133,19 @@
       <c r="C10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -8161,17 +8157,17 @@
       <c r="C11" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -8329,13 +8325,13 @@
         <v>11</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8523,24 +8519,24 @@
         <v>12</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -9174,24 +9170,24 @@
         <v>107</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -9867,20 +9863,20 @@
         <v>13</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10270,29 +10266,29 @@
         <v>14</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
     </row>
     <row r="2" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
